--- a/performanceanalysis.xlsx
+++ b/performanceanalysis.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justindomingue/School/comp512/cs512/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="460" windowWidth="13440" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="3820" yWindow="460" windowWidth="24980" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>a)</t>
-  </si>
-  <si>
-    <t>18405389741ns</t>
   </si>
   <si>
     <t>b)</t>
@@ -50,12 +47,6 @@
     <t>50 iter</t>
   </si>
   <si>
-    <t>19628257821ns</t>
-  </si>
-  <si>
-    <t>1000 iter</t>
-  </si>
-  <si>
     <t>ms/tps</t>
   </si>
   <si>
@@ -64,18 +55,46 @@
   <si>
     <t>8tps</t>
   </si>
+  <si>
+    <t>2tps</t>
+  </si>
+  <si>
+    <t>17ms/transaction</t>
+  </si>
+  <si>
+    <t>18ms/transaction</t>
+  </si>
+  <si>
+    <t>4tps</t>
+  </si>
+  <si>
+    <t>6tps</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.4"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,6 +133,898 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response time by number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of transaction per seconds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.77777777777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2062755408"/>
+        <c:axId val="-2062746944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2062755408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2062746944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2062746944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2062755408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C39"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -388,40 +1301,33 @@
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <f>18405389741/1000</f>
-        <v>18405389.741</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>3</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -429,18 +1335,32 @@
       <c r="D4">
         <v>1120</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(C4:C13)</f>
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5">
         <v>1102</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(C38:C47)</f>
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -448,10 +1368,17 @@
       <c r="D6">
         <v>1097</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(F59:F68)</f>
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -459,10 +1386,17 @@
       <c r="D7">
         <v>1139</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(F49:F57)</f>
+        <v>25.777777777777779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -470,16 +1404,30 @@
       <c r="D8">
         <v>1102</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(F27:F36)</f>
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>23</v>
       </c>
       <c r="D9">
         <v>1160</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(C16:C25)</f>
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>22</v>
       </c>
@@ -487,7 +1435,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>23</v>
       </c>
@@ -495,15 +1443,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>2743</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>22</v>
       </c>
@@ -511,9 +1459,9 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>29</v>
@@ -522,7 +1470,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>27</v>
       </c>
@@ -530,7 +1478,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>31</v>
       </c>
@@ -538,7 +1486,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>36</v>
       </c>
@@ -546,7 +1494,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>30</v>
       </c>
@@ -554,7 +1502,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>28</v>
       </c>
@@ -562,7 +1510,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>30</v>
       </c>
@@ -570,7 +1518,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>28</v>
       </c>
@@ -578,7 +1526,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>29</v>
       </c>
@@ -586,7 +1534,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>33</v>
       </c>
@@ -594,9 +1542,9 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>21</v>
@@ -604,56 +1552,379 @@
       <c r="D27">
         <v>2167</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F27" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>22</v>
       </c>
       <c r="D28">
         <v>2252</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F28" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F29" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F30" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F31" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F32" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F33" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F34" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F35" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>21</v>
       </c>
+      <c r="F36" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="1">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="1">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="1">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="1">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="1">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="1">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2">
+        <v>26</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2">
+        <v>28</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2">
+        <v>28</v>
+      </c>
+      <c r="D47" s="2">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3336</v>
+      </c>
+      <c r="F49" s="2">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2">
+        <v>30</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3037</v>
+      </c>
+      <c r="F50" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2">
+        <v>29</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2941</v>
+      </c>
+      <c r="F51" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2">
+        <v>30</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3043</v>
+      </c>
+      <c r="F52" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
+        <v>30</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3050</v>
+      </c>
+      <c r="F53" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2">
+        <v>30</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3054</v>
+      </c>
+      <c r="F54" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2">
+        <v>29</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2931</v>
+      </c>
+      <c r="F55" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2">
+        <v>29</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2936</v>
+      </c>
+      <c r="F56" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3144</v>
+      </c>
+      <c r="F57" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="2">
+        <v>34</v>
+      </c>
+      <c r="F59" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C60" s="2">
+        <v>35</v>
+      </c>
+      <c r="F60" s="2">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C61" s="2">
+        <v>35</v>
+      </c>
+      <c r="F61" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C62" s="2">
+        <v>34</v>
+      </c>
+      <c r="F62" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C63" s="2">
+        <v>33</v>
+      </c>
+      <c r="F63" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C64" s="2">
+        <v>34</v>
+      </c>
+      <c r="F64" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C65" s="2">
+        <v>33</v>
+      </c>
+      <c r="F65" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C66" s="2">
+        <v>32</v>
+      </c>
+      <c r="F66" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C67" s="2">
+        <v>32</v>
+      </c>
+      <c r="F67" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C68" s="2">
+        <v>37</v>
+      </c>
+      <c r="F68" s="2">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>